--- a/studies/elsa/dto_bivariate_elsa.xlsx
+++ b/studies/elsa/dto_bivariate_elsa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>version</t>
   </si>
@@ -44,9 +44,6 @@
     <t>subject_count</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>deviance</t>
   </si>
   <si>
@@ -147,6 +144,57 @@
   </si>
   <si>
     <t>model_7</t>
+  </si>
+  <si>
+    <t>cognitive_outcome</t>
+  </si>
+  <si>
+    <t>physical_outcome</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>cognitive</t>
+  </si>
+  <si>
+    <t>Muscle strength</t>
+  </si>
+  <si>
+    <t>Pulmonary function</t>
+  </si>
+  <si>
+    <t>Summary measures</t>
+  </si>
+  <si>
+    <t>Walking speed time</t>
+  </si>
+  <si>
+    <t>Chair rise time</t>
+  </si>
+  <si>
+    <t>Flamingo stand time</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Visuospatial ability</t>
+  </si>
+  <si>
+    <t>Executive functioning</t>
+  </si>
+  <si>
+    <t>Mental status</t>
+  </si>
+  <si>
+    <t>model_number</t>
   </si>
 </sst>
 </file>
@@ -154,9 +202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,13 +241,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -217,24 +302,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="60" wrapText="1"/>
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="60" wrapText="1"/>
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,125 +656,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1"/>
     <col min="2" max="2" width="3.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="18" width="6.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="21" width="6.42578125" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="24" width="6.42578125" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="28" width="9.28515625" style="1"/>
-    <col min="29" max="29" width="11" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.28515625" style="1"/>
+    <col min="7" max="7" width="9.28515625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8" style="11" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="11"/>
+    <col min="12" max="12" width="10.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="8" customWidth="1"/>
+    <col min="15" max="17" width="6.42578125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="9" customWidth="1"/>
+    <col min="19" max="21" width="6.42578125" style="14" customWidth="1"/>
+    <col min="22" max="24" width="6.42578125" style="23" customWidth="1"/>
+    <col min="25" max="27" width="6.42578125" style="25" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="11"/>
+    <col min="29" max="30" width="9.28515625" style="1"/>
+    <col min="31" max="31" width="11" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="W1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="9" t="s">
+      <c r="Z1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="AA1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AE1" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>0.1</v>
@@ -662,90 +796,96 @@
       <c r="C2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="5">
         <v>42048</v>
       </c>
       <c r="E2" s="3">
         <v>0.61458333333333337</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11">
         <v>567</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="11">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="11">
         <v>2592</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="11">
         <v>12</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="11">
         <v>56565</v>
       </c>
-      <c r="M2" s="2">
-        <f t="shared" ref="M2:X3" ca="1" si="0">RAND()</f>
-        <v>0.95733431208295094</v>
-      </c>
-      <c r="N2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73871581508128259</v>
-      </c>
-      <c r="O2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34824213679840921</v>
-      </c>
-      <c r="P2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28788343827790397</v>
-      </c>
-      <c r="Q2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87069212060051226</v>
-      </c>
-      <c r="R2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35285384772413375</v>
-      </c>
-      <c r="S2" s="8">
+      <c r="N2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="12">
+        <f t="shared" ref="O2:AA3" ca="1" si="0">RAND()</f>
+        <v>0.77297185037904981</v>
+      </c>
+      <c r="P2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4702685913783449E-2</v>
+      </c>
+      <c r="Q2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12171183481220604</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95957473887265998</v>
+      </c>
+      <c r="T2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81466152544749082</v>
+      </c>
+      <c r="U2" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86903217791080256</v>
+      </c>
+      <c r="V2" s="23">
         <v>0.34</v>
       </c>
-      <c r="T2" s="8">
+      <c r="W2" s="23">
         <f ca="1">RAND()</f>
-        <v>0.55618594955055267</v>
-      </c>
-      <c r="U2" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95913158684148769</v>
-      </c>
-      <c r="V2" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57014744653045102</v>
-      </c>
-      <c r="W2" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.63099808028640147</v>
-      </c>
-      <c r="X2" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74007102278757042</v>
-      </c>
-      <c r="Y2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.38890828352940843</v>
+      </c>
+      <c r="X2" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83753937833529524</v>
+      </c>
+      <c r="Y2" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68522719310392721</v>
+      </c>
+      <c r="Z2" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96910513658279185</v>
+      </c>
+      <c r="AA2" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54128582127327163</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>1.1000000000000001</v>
@@ -753,107 +893,116 @@
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="5">
         <v>42049</v>
       </c>
       <c r="E3" s="3">
         <v>0.65625</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="11">
+        <v>423</v>
+      </c>
+      <c r="J3" s="11">
+        <v>5</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1954</v>
+      </c>
+      <c r="L3" s="11">
+        <v>12</v>
+      </c>
+      <c r="M3" s="11">
+        <v>34534</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5474127412674963E-2</v>
+      </c>
+      <c r="P3" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90645468672967655</v>
+      </c>
+      <c r="Q3" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19970891478446584</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43509715153852502</v>
+      </c>
+      <c r="T3" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25336764064048889</v>
+      </c>
+      <c r="U3" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40420010738180012</v>
+      </c>
+      <c r="V3" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W3" s="23">
+        <f ca="1">RAND()</f>
+        <v>0.36591441924211343</v>
+      </c>
+      <c r="X3" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4162256583903261</v>
+      </c>
+      <c r="Y3" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43698626186772338</v>
+      </c>
+      <c r="Z3" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31596094310567546</v>
+      </c>
+      <c r="AA3" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14219763870384505</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1">
-        <v>423</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1954</v>
-      </c>
-      <c r="K3" s="1">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1">
-        <v>34534</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89335647607889246</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34191339953947286</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2697496703496678E-2</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73507950137907696</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31461934101931255</v>
-      </c>
-      <c r="R3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58619232038187186</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T3" s="8">
-        <f ca="1">RAND()</f>
-        <v>0.42913951026402841</v>
-      </c>
-      <c r="U3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37582921189900576</v>
-      </c>
-      <c r="V3" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.6079208041251198E-2</v>
-      </c>
-      <c r="W3" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39117997551384853</v>
-      </c>
-      <c r="X3" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40651109521201789</v>
-      </c>
-      <c r="Y3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1010,7 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>values!$C$2:$C$3</xm:f>
@@ -870,27 +1019,39 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>values!$F$2:$F$15</xm:f>
+            <xm:f>values!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>values!$D$6:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>values!$Z$2:$Z$3</xm:f>
+            <xm:f>values!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>values!$AC$2:$AC$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>AB2</xm:sqref>
+          <xm:sqref>G2:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>values!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3</xm:sqref>
+          <xm:sqref>AD2:AD3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>values!$C$9:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>values!$G$9:$G$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -900,150 +1061,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC5"/>
+  <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>33</v>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>